--- a/__idea/服务器/新老服务器列表.xlsx
+++ b/__idea/服务器/新老服务器列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>老服务器</t>
   </si>
@@ -22,6 +22,9 @@
     <t>新服务器</t>
   </si>
   <si>
+    <t>新服务器JX3PVE</t>
+  </si>
+  <si>
     <t>1=电一|长安城</t>
   </si>
   <si>
@@ -34,6 +37,12 @@
     <t xml:space="preserve">电一|龙争虎斗 </t>
   </si>
   <si>
+    <t xml:space="preserve">1=电一|长安城 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2=电一|龙争虎斗 </t>
+  </si>
+  <si>
     <t>3=电二|白帝城</t>
   </si>
   <si>
@@ -46,22 +55,22 @@
     <t xml:space="preserve">电二|荻花宫/群英汇 </t>
   </si>
   <si>
-    <t>电二|荻花宫</t>
-  </si>
-  <si>
     <t>5=电二|群英汇</t>
   </si>
   <si>
     <t>电二|风花雪月</t>
   </si>
   <si>
+    <t>35=电二|风花雪月</t>
+  </si>
+  <si>
+    <t>6=电三|秦王殿</t>
+  </si>
+  <si>
     <t>电三|秦王殿</t>
   </si>
   <si>
-    <t>6=电三|秦王殿</t>
-  </si>
-  <si>
-    <t>电三|金蛇漫舞</t>
+    <t>7=电三|金蛇漫舞</t>
   </si>
   <si>
     <t>7=电三|忆盈楼</t>
@@ -70,199 +79,235 @@
     <t>电三|金蛇漫舞/忆盈楼</t>
   </si>
   <si>
+    <t xml:space="preserve">33=电三|比翼双飞 </t>
+  </si>
+  <si>
+    <t>33=电三|比翼双飞</t>
+  </si>
+  <si>
     <t xml:space="preserve">电三|比翼双飞 </t>
   </si>
   <si>
-    <t>33=电三|比翼双飞</t>
+    <t xml:space="preserve">8=电四|日月明尊 </t>
+  </si>
+  <si>
+    <t>9=电四|蝶恋花</t>
+  </si>
+  <si>
+    <t>8=电四|日月明尊</t>
   </si>
   <si>
     <t xml:space="preserve">电四|日月明尊 </t>
   </si>
   <si>
-    <t>电四|蝶恋花</t>
-  </si>
-  <si>
-    <t>8=电四|日月明尊</t>
-  </si>
-  <si>
-    <t>电五|梦江南</t>
-  </si>
-  <si>
-    <t>9=电四|蝶恋花</t>
+    <t>11=电五|梦江南</t>
   </si>
   <si>
     <t xml:space="preserve">电四|蝶恋花/初心不泯 </t>
   </si>
   <si>
-    <t>电五|乾坤一掷</t>
+    <t>12=电五|乾坤一掷</t>
   </si>
   <si>
     <t>10=电四|初心不泯</t>
   </si>
   <si>
-    <t xml:space="preserve">电五|幽月轮 </t>
+    <t xml:space="preserve">13=电五|幽月轮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14=电五|唯我独尊 </t>
+  </si>
+  <si>
+    <t>11=电五|双梦镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电五|梦江南/双梦镇 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15=电五|剑胆琴心 </t>
+  </si>
+  <si>
+    <t>12=电五|华乾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电五|乾坤一掷/华乾 </t>
+  </si>
+  <si>
+    <t>16=电五|斗转星移</t>
+  </si>
+  <si>
+    <t>13=电五|圣墓山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电五|幽月轮/圣墓山 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36=电五|金榜题名 </t>
+  </si>
+  <si>
+    <t>14=电五|唯我独尊</t>
   </si>
   <si>
     <t xml:space="preserve">电五|唯我独尊 </t>
   </si>
   <si>
-    <t>11=电五|双梦镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电五|梦江南/双梦镇 </t>
+    <t xml:space="preserve">17=电六|红尘寻梦 </t>
+  </si>
+  <si>
+    <t>15=电五|剑胆琴心</t>
   </si>
   <si>
     <t xml:space="preserve">电五|剑胆琴心 </t>
   </si>
   <si>
-    <t>12=电五|华乾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电五|乾坤一掷/华乾 </t>
-  </si>
-  <si>
-    <t>电五|斗转星移</t>
-  </si>
-  <si>
-    <t>13=电五|圣墓山</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电五|幽月轮/圣墓山 </t>
+    <t>18=电六|名动江湖</t>
+  </si>
+  <si>
+    <t>16=电五|风雨大姨妈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电五|斗转星移/风雨大姨妈 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37=电六|春和景明 </t>
   </si>
   <si>
     <t xml:space="preserve">电五|金榜题名 </t>
   </si>
   <si>
-    <t>14=电五|唯我独尊</t>
+    <t>20=电七|雪月天枪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21=电七|情深似海 </t>
+  </si>
+  <si>
+    <t>17=电六|红尘寻梦</t>
   </si>
   <si>
     <t xml:space="preserve">电六|红尘寻梦 </t>
   </si>
   <si>
-    <t>15=电五|剑胆琴心</t>
-  </si>
-  <si>
-    <t>电六|名动江湖</t>
-  </si>
-  <si>
-    <t>16=电五|风雨大姨妈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电五|斗转星移/风雨大姨妈 </t>
+    <t xml:space="preserve">22=电八|亢龙有悔 </t>
+  </si>
+  <si>
+    <t>18=电六|剑指龙城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电六|名动江湖/剑指龙城 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23=电八|绝代天骄 </t>
+  </si>
+  <si>
+    <t>19=电六|名动江湖</t>
   </si>
   <si>
     <t xml:space="preserve">电六|春和景明 </t>
   </si>
   <si>
-    <t>电七|雪月天枪</t>
+    <t xml:space="preserve">24=电八|战无不胜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26=网一/二|叶芷青 </t>
+  </si>
+  <si>
+    <t>20=电七|光明顶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电七|雪月天枪/光明顶 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27=网一/二|李忘生 </t>
+  </si>
+  <si>
+    <t>21=电七|情深似海</t>
   </si>
   <si>
     <t xml:space="preserve">电七|情深似海 </t>
   </si>
   <si>
-    <t>17=电六|红尘寻梦</t>
+    <t xml:space="preserve">28=网一/二|飞龙在天  </t>
+  </si>
+  <si>
+    <t>22=电八|亢龙有悔</t>
   </si>
   <si>
     <t xml:space="preserve">电八|亢龙有悔 </t>
   </si>
   <si>
-    <t>18=电六|剑指龙城</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电六|名动江湖/剑指龙城 </t>
+    <t>29=网三|天鹅坪</t>
+  </si>
+  <si>
+    <t>23=电八|绝代天骄</t>
   </si>
   <si>
     <t xml:space="preserve">电八|绝代天骄 </t>
   </si>
   <si>
-    <t>19=电六|名动江湖</t>
-  </si>
-  <si>
-    <t>电八|战无不胜</t>
+    <t>30=网三|破阵子</t>
+  </si>
+  <si>
+    <t>24=电八|侠骨柔情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电八|战无不胜/侠骨柔情/致青春 </t>
+  </si>
+  <si>
+    <t>41=网三|鱼跃龙门</t>
+  </si>
+  <si>
+    <t>25=电八|致青春</t>
   </si>
   <si>
     <t xml:space="preserve">电八|星河清梦 </t>
   </si>
   <si>
-    <t>20=电七|光明顶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电七|雪月天枪/光明顶 </t>
+    <t>26=网一|叶芷青</t>
   </si>
   <si>
     <t xml:space="preserve">网一/二|叶芷青 </t>
   </si>
   <si>
-    <t>21=电七|情深似海</t>
+    <t>27=网一|李忘生</t>
   </si>
   <si>
     <t xml:space="preserve">网一/二|李忘生 </t>
   </si>
   <si>
-    <t>22=电八|亢龙有悔</t>
+    <t>28=网一|飞龙在天</t>
   </si>
   <si>
     <t xml:space="preserve">网一/二|飞龙在天 </t>
   </si>
   <si>
-    <t>23=电八|绝代天骄</t>
+    <t>34=网一|天长地久</t>
   </si>
   <si>
     <t xml:space="preserve">网一/二|天长地久 </t>
   </si>
   <si>
-    <t>24=电八|侠骨柔情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电八|战无不胜/侠骨柔情/致青春 </t>
-  </si>
-  <si>
     <t xml:space="preserve">网一/二|楼台烟雨 </t>
   </si>
   <si>
-    <t>25=电八|致青春</t>
-  </si>
-  <si>
-    <t>网三|天鹅坪</t>
-  </si>
-  <si>
-    <t>网三|破阵子</t>
-  </si>
-  <si>
-    <t>26=网一|叶芷青</t>
+    <t>网三|天鹅坪/君子如风 /侠肝义胆</t>
+  </si>
+  <si>
+    <t>30=网三|念破服</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网三|破阵子/念破服 </t>
+  </si>
+  <si>
+    <t>31=网三|君子如风</t>
   </si>
   <si>
     <t xml:space="preserve">网三|穆如清风 </t>
   </si>
   <si>
-    <t>27=网一|李忘生</t>
+    <t>32=网三|侠肝义胆</t>
   </si>
   <si>
     <t>网三|鱼跃龙门</t>
-  </si>
-  <si>
-    <t>28=网一|飞龙在天</t>
-  </si>
-  <si>
-    <t>34=网一|天长地久</t>
-  </si>
-  <si>
-    <t>29=网三|天鹅坪</t>
-  </si>
-  <si>
-    <t>网三|天鹅坪/君子如风 /侠肝义胆</t>
-  </si>
-  <si>
-    <t>30=网三|念破服</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网三|破阵子/念破服 </t>
-  </si>
-  <si>
-    <t>31=网三|君子如风</t>
-  </si>
-  <si>
-    <t>32=网三|侠肝义胆</t>
   </si>
 </sst>
 </file>
@@ -270,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -724,7 +769,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -733,385 +778,376 @@
     <col min="2" max="2" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19.5" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="19.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -1119,34 +1155,34 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
